--- a/biology/Botanique/Salix_rorida/Salix_rorida.xlsx
+++ b/biology/Botanique/Salix_rorida/Salix_rorida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix rorida est une espèce d'arbre de la famille des Salicaceae. Il est originaire de l'est de l'asie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix rorida est une espèce d'arbre de la famille des Salicaceae. Il est originaire de l'est de l'asie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix rorida est un arbuste ou un petit arbre pouvant atteindre 10 à 15 mètres de haut. Il est originaire du Japon, du nord de la Chine (Hebei, Heilongjiang, Jilin, Liaoning, Mongolie Intérieure), de Corée et de l'extrême est de la Russie. L'espèce se rencontre à une altitude comprise  entre 300 et 600 m[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix rorida est un arbuste ou un petit arbre pouvant atteindre 10 à 15 mètres de haut. Il est originaire du Japon, du nord de la Chine (Hebei, Heilongjiang, Jilin, Liaoning, Mongolie Intérieure), de Corée et de l'extrême est de la Russie. L'espèce se rencontre à une altitude comprise  entre 300 et 600 m.
 </t>
         </is>
       </c>
